--- a/simulation_data/iterative_algorithm/i_error_level_1_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_1_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.08002061174879</v>
+        <v>89.97407421179936</v>
       </c>
       <c r="D2" t="n">
-        <v>1.055902868064575</v>
+        <v>1.039111333581065</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.96203863405674</v>
+        <v>89.09406324701153</v>
       </c>
       <c r="D3" t="n">
-        <v>1.173527170869905</v>
+        <v>0.9787873457384664</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.28758816302765</v>
+        <v>88.07552211199869</v>
       </c>
       <c r="D4" t="n">
-        <v>1.078912706784221</v>
+        <v>1.13832915843706</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.96515192600862</v>
+        <v>86.93631624993637</v>
       </c>
       <c r="D5" t="n">
-        <v>1.021600070074297</v>
+        <v>0.9456265684991056</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.85476508933083</v>
+        <v>86.15793415345516</v>
       </c>
       <c r="D6" t="n">
-        <v>1.214145182071367</v>
+        <v>1.160090468645675</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.96034463357988</v>
+        <v>85.07311610026748</v>
       </c>
       <c r="D7" t="n">
-        <v>1.214663949181694</v>
+        <v>0.988063773380235</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.94827190575526</v>
+        <v>83.97296713201833</v>
       </c>
       <c r="D8" t="n">
-        <v>1.006784016953328</v>
+        <v>0.8869549412033381</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.90705699772199</v>
+        <v>83.02932257990037</v>
       </c>
       <c r="D9" t="n">
-        <v>1.296418032735378</v>
+        <v>0.9101912237200068</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.97514588529448</v>
+        <v>82.10674138846025</v>
       </c>
       <c r="D10" t="n">
-        <v>1.071574327180409</v>
+        <v>0.9795739066567827</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98254365552103</v>
+        <v>81.07352158131179</v>
       </c>
       <c r="D11" t="n">
-        <v>1.135195287177082</v>
+        <v>1.011169496522882</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.85854879751351</v>
+        <v>80.09065373088683</v>
       </c>
       <c r="D12" t="n">
-        <v>1.090496195137113</v>
+        <v>1.044395515558208</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.91067549919245</v>
+        <v>79.07759909236313</v>
       </c>
       <c r="D13" t="n">
-        <v>1.147182582405767</v>
+        <v>1.041704262479733</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.11638329210426</v>
+        <v>77.88444562716596</v>
       </c>
       <c r="D14" t="n">
-        <v>1.033547630613494</v>
+        <v>1.014186602816982</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.08490788563968</v>
+        <v>76.96472266024539</v>
       </c>
       <c r="D15" t="n">
-        <v>1.02939602882795</v>
+        <v>1.153555813193295</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.04743762497623</v>
+        <v>75.99328394099865</v>
       </c>
       <c r="D16" t="n">
-        <v>1.128831660005935</v>
+        <v>0.9766165852691694</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.03279150933973</v>
+        <v>74.88809621208063</v>
       </c>
       <c r="D17" t="n">
-        <v>1.082822116715657</v>
+        <v>1.178180672175378</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.09028463947858</v>
+        <v>73.94551328882004</v>
       </c>
       <c r="D18" t="n">
-        <v>1.194740754759779</v>
+        <v>0.982794389122649</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.97795363637442</v>
+        <v>73.0036593544142</v>
       </c>
       <c r="D19" t="n">
-        <v>1.22261884776058</v>
+        <v>0.9997791857388086</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.84088592463706</v>
+        <v>72.0369090050378</v>
       </c>
       <c r="D20" t="n">
-        <v>1.021832876117009</v>
+        <v>0.9977575855877756</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.89160869035319</v>
+        <v>70.97884037975582</v>
       </c>
       <c r="D21" t="n">
-        <v>1.138471488051256</v>
+        <v>1.028862290572353</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99136316499921</v>
+        <v>69.96182812166941</v>
       </c>
       <c r="D22" t="n">
-        <v>1.138320216144233</v>
+        <v>1.038629628094548</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.98380433720726</v>
+        <v>68.99980745583305</v>
       </c>
       <c r="D23" t="n">
-        <v>1.075042893764751</v>
+        <v>1.013762083828592</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.02905472782977</v>
+        <v>68.07736398348527</v>
       </c>
       <c r="D24" t="n">
-        <v>1.247474324681125</v>
+        <v>1.00822420377808</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.10821582992421</v>
+        <v>67.10687683313782</v>
       </c>
       <c r="D25" t="n">
-        <v>1.149920933560459</v>
+        <v>1.068454156896625</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.97062536118212</v>
+        <v>65.80938304625813</v>
       </c>
       <c r="D26" t="n">
-        <v>1.093485068378705</v>
+        <v>1.030235891370438</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.94119020397309</v>
+        <v>65.08196407028827</v>
       </c>
       <c r="D27" t="n">
-        <v>1.153051014282548</v>
+        <v>1.026276474782261</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.11285805767147</v>
+        <v>64.03440316818991</v>
       </c>
       <c r="D28" t="n">
-        <v>1.154392370480135</v>
+        <v>1.049410793244051</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.04207222007807</v>
+        <v>63.04528239018946</v>
       </c>
       <c r="D29" t="n">
-        <v>1.331967902837744</v>
+        <v>0.968207029548269</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.03332532076067</v>
+        <v>62.11286653299816</v>
       </c>
       <c r="D30" t="n">
-        <v>1.117320372616742</v>
+        <v>1.065675461803479</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.86934446391325</v>
+        <v>61.13095982400757</v>
       </c>
       <c r="D31" t="n">
-        <v>1.1879795005301</v>
+        <v>0.9605789434132516</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0402818984446</v>
+        <v>60.11760494227513</v>
       </c>
       <c r="D32" t="n">
-        <v>1.082237026915182</v>
+        <v>1.021027585961531</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.04457100464014</v>
+        <v>58.91160554758124</v>
       </c>
       <c r="D33" t="n">
-        <v>1.115901032941863</v>
+        <v>1.143436491573896</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.95655526746265</v>
+        <v>57.92771878757211</v>
       </c>
       <c r="D34" t="n">
-        <v>1.023583908490523</v>
+        <v>0.9465931873561111</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.93195737917644</v>
+        <v>57.04682753670293</v>
       </c>
       <c r="D35" t="n">
-        <v>1.114729621201253</v>
+        <v>0.9510759672313893</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.00444231830115</v>
+        <v>56.01308692754579</v>
       </c>
       <c r="D36" t="n">
-        <v>1.15521341193481</v>
+        <v>0.8893352680052754</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.98360426175825</v>
+        <v>55.00720419115429</v>
       </c>
       <c r="D37" t="n">
-        <v>1.013182708484481</v>
+        <v>1.075856728709724</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.0257917882481</v>
+        <v>54.05805363168425</v>
       </c>
       <c r="D38" t="n">
-        <v>1.294209916149719</v>
+        <v>1.183106736258582</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.92173347468113</v>
+        <v>53.17530935468981</v>
       </c>
       <c r="D39" t="n">
-        <v>1.171078884463093</v>
+        <v>1.119848480994428</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.90928298652786</v>
+        <v>52.15606616228482</v>
       </c>
       <c r="D40" t="n">
-        <v>1.152698888647384</v>
+        <v>1.097449951524147</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.91638249207859</v>
+        <v>50.89258217864357</v>
       </c>
       <c r="D41" t="n">
-        <v>1.208528051296795</v>
+        <v>1.168935708996968</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.0155798107951</v>
+        <v>50.24015855105179</v>
       </c>
       <c r="D42" t="n">
-        <v>1.066758042378955</v>
+        <v>1.130271236675421</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.21018763924835</v>
+        <v>49.0051651907496</v>
       </c>
       <c r="D43" t="n">
-        <v>1.067196196207655</v>
+        <v>1.052077788422628</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.15261882110216</v>
+        <v>48.05947133443787</v>
       </c>
       <c r="D44" t="n">
-        <v>1.191629277795834</v>
+        <v>1.027596530294044</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.13596037362474</v>
+        <v>47.04709331940722</v>
       </c>
       <c r="D45" t="n">
-        <v>1.152741177973243</v>
+        <v>1.023225102241819</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.94744401627112</v>
+        <v>45.77934032412068</v>
       </c>
       <c r="D46" t="n">
-        <v>1.088419906614504</v>
+        <v>1.053223690978878</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.04796275946526</v>
+        <v>44.80281096618034</v>
       </c>
       <c r="D47" t="n">
-        <v>1.023832359797756</v>
+        <v>1.133311325252999</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.08009193636374</v>
+        <v>44.1181226951012</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9594454583677634</v>
+        <v>1.164309541235402</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99842387052163</v>
+        <v>42.92957417746319</v>
       </c>
       <c r="D49" t="n">
-        <v>1.28037084746268</v>
+        <v>1.129239175506457</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.93599226537522</v>
+        <v>42.05834281512357</v>
       </c>
       <c r="D50" t="n">
-        <v>1.050651577989519</v>
+        <v>0.9426654526888352</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.00571946724673</v>
+        <v>40.91993191389719</v>
       </c>
       <c r="D51" t="n">
-        <v>1.092991242223575</v>
+        <v>1.107917440839904</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0895703912224</v>
+        <v>39.93809131683489</v>
       </c>
       <c r="D52" t="n">
-        <v>1.081483033543648</v>
+        <v>1.171149887361272</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.12451588618055</v>
+        <v>39.06227340601657</v>
       </c>
       <c r="D53" t="n">
-        <v>1.042907090128299</v>
+        <v>1.068493147421358</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.89918695500958</v>
+        <v>38.02372216422465</v>
       </c>
       <c r="D54" t="n">
-        <v>1.208528378660355</v>
+        <v>1.131180500360831</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.01759332668595</v>
+        <v>36.850292663708</v>
       </c>
       <c r="D55" t="n">
-        <v>1.109148580036411</v>
+        <v>1.080409937949983</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.81977992378498</v>
+        <v>36.11770411245309</v>
       </c>
       <c r="D56" t="n">
-        <v>1.156352419376724</v>
+        <v>1.084916883808943</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.89197016067432</v>
+        <v>35.30175040445459</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9980874764836825</v>
+        <v>1.133748274288616</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.90197918381002</v>
+        <v>33.95629788367119</v>
       </c>
       <c r="D58" t="n">
-        <v>1.163290794806118</v>
+        <v>0.961341699502126</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98460070320288</v>
+        <v>32.83913823071023</v>
       </c>
       <c r="D59" t="n">
-        <v>1.159563896948753</v>
+        <v>1.021082816647437</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.00272463724509</v>
+        <v>31.95846323212918</v>
       </c>
       <c r="D60" t="n">
-        <v>1.084325389007246</v>
+        <v>1.125927768526522</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.97369695655542</v>
+        <v>31.04753431457867</v>
       </c>
       <c r="D61" t="n">
-        <v>1.049355398782524</v>
+        <v>1.278145686536558</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.96198649570092</v>
+        <v>30.00642850940657</v>
       </c>
       <c r="D62" t="n">
-        <v>1.247913722433965</v>
+        <v>1.113032624427009</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.86411951549852</v>
+        <v>28.95416552634109</v>
       </c>
       <c r="D63" t="n">
-        <v>1.057763055900531</v>
+        <v>1.132028997865815</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.79329110889563</v>
+        <v>27.70181787808001</v>
       </c>
       <c r="D64" t="n">
-        <v>1.144337802999338</v>
+        <v>1.052944370733029</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.98297584710764</v>
+        <v>27.21903565791019</v>
       </c>
       <c r="D65" t="n">
-        <v>1.081708290688593</v>
+        <v>1.236428938552971</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.16022678174893</v>
+        <v>26.15787008253913</v>
       </c>
       <c r="D66" t="n">
-        <v>1.145617690797447</v>
+        <v>1.117343404554675</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.83166210711288</v>
+        <v>24.87532813940189</v>
       </c>
       <c r="D67" t="n">
-        <v>1.060138408532804</v>
+        <v>1.150125848542598</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.04305632351473</v>
+        <v>23.80532767689036</v>
       </c>
       <c r="D68" t="n">
-        <v>1.243119616313302</v>
+        <v>1.156741699686509</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.93506012898801</v>
+        <v>23.05575238124209</v>
       </c>
       <c r="D69" t="n">
-        <v>1.128914456189279</v>
+        <v>1.115637189187126</v>
       </c>
     </row>
   </sheetData>
